--- a/SPSWENG_SystemScape_HrsPerWeek_v1.xlsx
+++ b/SPSWENG_SystemScape_HrsPerWeek_v1.xlsx
@@ -402,7 +402,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/SPSWENG_SystemScape_HrsPerWeek_v1.xlsx
+++ b/SPSWENG_SystemScape_HrsPerWeek_v1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="915" windowWidth="19395" windowHeight="7155"/>
+    <workbookView xWindow="960" yWindow="915" windowWidth="10290" windowHeight="7155"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -402,7 +402,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
